--- a/data/league_data/england/20/england_misc.xlsx
+++ b/data/league_data/england/20/england_misc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/england/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03C32703-A82F-4644-885A-78E0510589F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFDF070-C1C3-2747-9EAF-FCBFA065A945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -1582,9 +1582,6 @@
     <t>Ryan Sessegnon</t>
   </si>
   <si>
-    <t>Jota</t>
-  </si>
-  <si>
     <t>Alireza Jahanbakhsh</t>
   </si>
   <si>
@@ -1838,12 +1835,15 @@
   </si>
   <si>
     <t>Ralf Fährmann</t>
+  </si>
+  <si>
+    <t>Jota Peleteiro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2701,14 +2701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="B415" sqref="B415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -2736,7 +2736,7 @@
     <col min="24" max="24" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="X52" s="2"/>
     </row>
-    <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="X89" s="2"/>
     </row>
-    <row r="90" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10406,7 +10406,7 @@
       </c>
       <c r="X104" s="2"/>
     </row>
-    <row r="105" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="X109" s="2"/>
     </row>
-    <row r="110" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>67.7</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14102,7 +14102,7 @@
       </c>
       <c r="X154" s="2"/>
     </row>
-    <row r="155" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -16470,7 +16470,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -16544,7 +16544,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -17356,7 +17356,7 @@
       </c>
       <c r="X198" s="2"/>
     </row>
-    <row r="199" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -17430,7 +17430,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -17874,7 +17874,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -18170,7 +18170,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -18244,7 +18244,7 @@
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -18392,7 +18392,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -18614,7 +18614,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -18762,7 +18762,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -18984,7 +18984,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -19130,7 +19130,7 @@
       </c>
       <c r="X222" s="2"/>
     </row>
-    <row r="223" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -19278,7 +19278,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -19500,7 +19500,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -19722,7 +19722,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -20018,7 +20018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -20166,7 +20166,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -20240,7 +20240,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -20388,7 +20388,7 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -20536,7 +20536,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -20610,7 +20610,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -20684,7 +20684,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -20758,7 +20758,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -20832,7 +20832,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -20906,7 +20906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -21054,7 +21054,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -21202,7 +21202,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -21424,7 +21424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -21498,7 +21498,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -21572,7 +21572,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -21720,7 +21720,7 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -21794,7 +21794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -21942,7 +21942,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -22016,7 +22016,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -22090,7 +22090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -22164,7 +22164,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -22238,7 +22238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -22386,7 +22386,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -22460,7 +22460,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -22534,7 +22534,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -22608,7 +22608,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -22682,7 +22682,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -22830,7 +22830,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -22904,7 +22904,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -22978,7 +22978,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -23052,7 +23052,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -23126,7 +23126,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -23348,7 +23348,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -23422,7 +23422,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -23496,7 +23496,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -23570,7 +23570,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -23644,7 +23644,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -23718,7 +23718,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -23792,7 +23792,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -23940,7 +23940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -24014,7 +24014,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -24088,7 +24088,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -24162,7 +24162,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -24236,7 +24236,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -24310,7 +24310,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -24384,7 +24384,7 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="294" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -24458,7 +24458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -24532,7 +24532,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -24606,7 +24606,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="297" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -24678,7 +24678,7 @@
       </c>
       <c r="X297" s="2"/>
     </row>
-    <row r="298" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -24752,7 +24752,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -24826,7 +24826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -24900,7 +24900,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -24974,7 +24974,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -25048,7 +25048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -25122,7 +25122,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -25196,7 +25196,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -25270,7 +25270,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -25344,7 +25344,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -25418,7 +25418,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -25492,7 +25492,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -25566,7 +25566,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -25640,7 +25640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -25714,7 +25714,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -25788,7 +25788,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -25862,7 +25862,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -26010,7 +26010,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -26084,7 +26084,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -26158,7 +26158,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="318" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -26232,7 +26232,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -26306,7 +26306,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="320" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -26380,7 +26380,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -26454,7 +26454,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -26528,7 +26528,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -26602,7 +26602,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="324" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -26750,7 +26750,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="326" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -26824,7 +26824,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="327" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -26898,7 +26898,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="328" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -26972,7 +26972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="329" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -27044,7 +27044,7 @@
       </c>
       <c r="X329" s="2"/>
     </row>
-    <row r="330" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -27118,7 +27118,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="331" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -27192,7 +27192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -27264,7 +27264,7 @@
       </c>
       <c r="X332" s="2"/>
     </row>
-    <row r="333" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -27338,7 +27338,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="334" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -27412,7 +27412,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -27486,7 +27486,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -27560,7 +27560,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -27634,7 +27634,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -27708,7 +27708,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -27782,7 +27782,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -27856,7 +27856,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="341" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -27930,7 +27930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -28004,7 +28004,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -28078,7 +28078,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="344" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -28152,7 +28152,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -28226,7 +28226,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="346" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -28300,7 +28300,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -28374,7 +28374,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="348" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -28446,7 +28446,7 @@
       </c>
       <c r="X348" s="2"/>
     </row>
-    <row r="349" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -28520,7 +28520,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="350" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -28594,7 +28594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="351" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -28668,7 +28668,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="352" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -28742,7 +28742,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -28816,7 +28816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -28964,7 +28964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -29038,7 +29038,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -29112,7 +29112,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -29186,7 +29186,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="359" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -29260,7 +29260,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -29334,7 +29334,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -29408,7 +29408,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -29482,7 +29482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -29556,7 +29556,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -29628,7 +29628,7 @@
       </c>
       <c r="X364" s="2"/>
     </row>
-    <row r="365" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -29702,7 +29702,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -29776,7 +29776,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -29850,7 +29850,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -29924,7 +29924,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -29998,7 +29998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -30072,7 +30072,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -30146,7 +30146,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -30220,7 +30220,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -30294,7 +30294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -30368,7 +30368,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -30442,7 +30442,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -30516,7 +30516,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -30664,7 +30664,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -30738,7 +30738,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -30886,7 +30886,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -30960,7 +30960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -31034,7 +31034,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -31108,7 +31108,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="385" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -31182,7 +31182,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -31256,7 +31256,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="387" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -31330,7 +31330,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="388" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -31404,7 +31404,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -31478,7 +31478,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="390" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -31552,7 +31552,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="391" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -31626,7 +31626,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="392" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -31698,7 +31698,7 @@
       </c>
       <c r="X392" s="2"/>
     </row>
-    <row r="393" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -31772,7 +31772,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="394" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -31846,7 +31846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -31920,7 +31920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="396" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -31994,7 +31994,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="397" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -32068,7 +32068,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="398" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -32142,7 +32142,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="399" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -32214,7 +32214,7 @@
       </c>
       <c r="X399" s="2"/>
     </row>
-    <row r="400" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -32288,7 +32288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -32362,7 +32362,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -32436,7 +32436,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -32508,7 +32508,7 @@
       </c>
       <c r="X403" s="2"/>
     </row>
-    <row r="404" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -32582,7 +32582,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -32656,7 +32656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -32730,7 +32730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -32804,7 +32804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -32878,7 +32878,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -32952,7 +32952,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -33026,7 +33026,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -33098,7 +33098,7 @@
       </c>
       <c r="X411" s="2"/>
     </row>
-    <row r="412" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -33172,7 +33172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="413" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -33246,7 +33246,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="414" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -33320,12 +33320,12 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="415" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>520</v>
+        <v>605</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>40</v>
@@ -33394,15 +33394,15 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C416" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>85</v>
@@ -33468,12 +33468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>25</v>
@@ -33542,12 +33542,12 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>145</v>
@@ -33616,12 +33616,12 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>152</v>
@@ -33690,12 +33690,12 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="420" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>44</v>
@@ -33764,12 +33764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>115</v>
@@ -33838,12 +33838,12 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="422" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>449</v>
@@ -33912,12 +33912,12 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="423" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>223</v>
@@ -33984,12 +33984,12 @@
       </c>
       <c r="X423" s="2"/>
     </row>
-    <row r="424" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>25</v>
@@ -34058,12 +34058,12 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="425" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>40</v>
@@ -34132,12 +34132,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="426" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>25</v>
@@ -34206,12 +34206,12 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="427" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>25</v>
@@ -34280,12 +34280,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>306</v>
@@ -34354,12 +34354,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>495</v>
@@ -34428,7 +34428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="430" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -34502,12 +34502,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="431" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>123</v>
@@ -34576,12 +34576,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>25</v>
@@ -34650,12 +34650,12 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>25</v>
@@ -34724,7 +34724,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -34798,12 +34798,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>25</v>
@@ -34872,12 +34872,12 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>223</v>
@@ -34946,12 +34946,12 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>65</v>
@@ -35020,12 +35020,12 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>495</v>
@@ -35094,12 +35094,12 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>25</v>
@@ -35168,12 +35168,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>25</v>
@@ -35242,12 +35242,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>99</v>
@@ -35316,12 +35316,12 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>25</v>
@@ -35390,12 +35390,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>25</v>
@@ -35464,12 +35464,12 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>25</v>
@@ -35538,12 +35538,12 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>181</v>
@@ -35612,12 +35612,12 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>25</v>
@@ -35686,12 +35686,12 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>25</v>
@@ -35758,12 +35758,12 @@
       </c>
       <c r="X447" s="2"/>
     </row>
-    <row r="448" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>65</v>
@@ -35830,12 +35830,12 @@
       </c>
       <c r="X448" s="2"/>
     </row>
-    <row r="449" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>115</v>
@@ -35904,12 +35904,12 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="450" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>63</v>
@@ -35976,12 +35976,12 @@
       </c>
       <c r="X450" s="2"/>
     </row>
-    <row r="451" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>40</v>
@@ -36050,12 +36050,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="452" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>70</v>
@@ -36124,12 +36124,12 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>181</v>
@@ -36198,12 +36198,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>31</v>
@@ -36272,12 +36272,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="455" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>70</v>
@@ -36346,12 +36346,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="456" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>25</v>
@@ -36420,12 +36420,12 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>200</v>
@@ -36494,12 +36494,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>25</v>
@@ -36568,12 +36568,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="459" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>25</v>
@@ -36642,12 +36642,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>25</v>
@@ -36716,12 +36716,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>174</v>
@@ -36790,12 +36790,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>70</v>
@@ -36864,12 +36864,12 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>40</v>
@@ -36938,12 +36938,12 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="464" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>158</v>
@@ -37012,12 +37012,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>78</v>
@@ -37086,15 +37086,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C466" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="C466" s="3" t="s">
-        <v>570</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>79</v>
@@ -37160,12 +37160,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>31</v>
@@ -37234,12 +37234,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>161</v>
@@ -37308,12 +37308,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>25</v>
@@ -37380,12 +37380,12 @@
       </c>
       <c r="X469" s="2"/>
     </row>
-    <row r="470" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>25</v>
@@ -37454,12 +37454,12 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>31</v>
@@ -37528,12 +37528,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>65</v>
@@ -37600,12 +37600,12 @@
       </c>
       <c r="X472" s="2"/>
     </row>
-    <row r="473" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>25</v>
@@ -37672,12 +37672,12 @@
       </c>
       <c r="X473" s="2"/>
     </row>
-    <row r="474" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>25</v>
@@ -37746,15 +37746,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C475" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>71</v>
@@ -37820,12 +37820,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>44</v>
@@ -37894,12 +37894,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>174</v>
@@ -37968,18 +37968,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="478" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E478" s="3" t="s">
         <v>38</v>
@@ -38042,12 +38042,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="479" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>161</v>
@@ -38116,12 +38116,12 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="480" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>464</v>
@@ -38190,12 +38190,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>44</v>
@@ -38264,12 +38264,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="482" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>90</v>
@@ -38338,12 +38338,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>25</v>
@@ -38412,12 +38412,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>25</v>
@@ -38484,12 +38484,12 @@
       </c>
       <c r="X484" s="2"/>
     </row>
-    <row r="485" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>449</v>
@@ -38558,12 +38558,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="486" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>303</v>
@@ -38632,12 +38632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>167</v>
@@ -38706,18 +38706,18 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="488" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E488" s="3" t="s">
         <v>41</v>
@@ -38780,12 +38780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>25</v>
@@ -38854,12 +38854,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="490" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>25</v>
@@ -38928,7 +38928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -39000,12 +39000,12 @@
       </c>
       <c r="X491" s="2"/>
     </row>
-    <row r="492" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>25</v>
@@ -39072,12 +39072,12 @@
       </c>
       <c r="X492" s="2"/>
     </row>
-    <row r="493" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>106</v>
@@ -39146,12 +39146,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="494" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>25</v>
@@ -39218,12 +39218,12 @@
       </c>
       <c r="X494" s="2"/>
     </row>
-    <row r="495" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>25</v>
@@ -39292,15 +39292,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="496" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C496" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>601</v>
       </c>
       <c r="D496" s="3" t="s">
         <v>50</v>
@@ -39366,12 +39366,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="497" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>25</v>
@@ -39438,12 +39438,12 @@
       </c>
       <c r="X497" s="2"/>
     </row>
-    <row r="498" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>40</v>
@@ -39512,12 +39512,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="499" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>25</v>
@@ -39584,12 +39584,12 @@
       </c>
       <c r="X499" s="2"/>
     </row>
-    <row r="500" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>167</v>
@@ -39656,7 +39656,6 @@
       </c>
       <c r="X500" s="2"/>
     </row>
-    <row r="501" spans="1:24" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/england/20/england_misc.xlsx
+++ b/data/league_data/england/20/england_misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/england/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFDF070-C1C3-2747-9EAF-FCBFA065A945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EAC049-AF85-4040-A80A-3856C517A99E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1810,9 +1810,6 @@
     <t>Josh Martin</t>
   </si>
   <si>
-    <t>João Pedro</t>
-  </si>
-  <si>
     <t>Patrick Roberts</t>
   </si>
   <si>
@@ -1838,6 +1835,9 @@
   </si>
   <si>
     <t>Jota Peleteiro</t>
+  </si>
+  <si>
+    <t>João Pedro Junqueira</t>
   </si>
 </sst>
 </file>
@@ -2704,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="B415" sqref="B415"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="B493" sqref="B493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33325,7 +33325,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>40</v>
@@ -39077,7 +39077,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>106</v>
@@ -39151,7 +39151,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>25</v>
@@ -39223,7 +39223,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>25</v>
@@ -39297,10 +39297,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C496" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>600</v>
       </c>
       <c r="D496" s="3" t="s">
         <v>50</v>
@@ -39371,7 +39371,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>25</v>
@@ -39443,7 +39443,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>40</v>
@@ -39517,7 +39517,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>25</v>
@@ -39589,7 +39589,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>167</v>
